--- a/20251127_Externe_KI_Use_Cases_abridged.xlsx
+++ b/20251127_Externe_KI_Use_Cases_abridged.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Dropdowns" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Benchmarking!$A$1:$Q$431</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Benchmarking!$A$1:$Q$411</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -9647,11 +9647,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q431"/>
+  <dimension ref="A1:Q411"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A411" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A412" sqref="A412:XFD412"/>
+      <selection pane="bottomLeft" activeCell="A412" sqref="A412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27412,7 +27412,7 @@
         <v>291</v>
       </c>
       <c r="Q377" s="2" t="str">
-        <f t="shared" ref="Q377:Q431" si="6" xml:space="preserve"> CONCATENATE(IF(ISBLANK(K377), "", K377), IF(ISBLANK(M377), "", (";"&amp;M377)), IF(ISBLANK(O377), "", (";"&amp;O377)))</f>
+        <f t="shared" ref="Q377:Q411" si="6" xml:space="preserve"> CONCATENATE(IF(ISBLANK(K377), "", K377), IF(ISBLANK(M377), "", (";"&amp;M377)), IF(ISBLANK(O377), "", (";"&amp;O377)))</f>
         <v>Kundenbindung &amp; Service;Risikomanagement;Onboarding &amp; Legitimation</v>
       </c>
     </row>
@@ -28856,128 +28856,8 @@
         <v>Kundenbindung &amp; Service;Marketing &amp; Vertrieb</v>
       </c>
     </row>
-    <row r="412" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="Q412" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="413" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="Q413" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="414" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="Q414" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="415" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="Q415" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="416" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="Q416" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="417" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q417" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="418" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q418" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="419" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q419" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="420" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q420" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="421" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q421" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="422" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q422" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="423" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q423" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="424" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q424" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="425" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q425" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="426" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q426" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="427" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q427" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="428" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q428" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="429" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q429" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="430" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q430" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="431" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q431" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:Q431"/>
+  <autoFilter ref="A1:Q411"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
